--- a/cells_initial_information/synaptic_location_seperate.xlsx
+++ b/cells_initial_information/synaptic_location_seperate.xlsx
@@ -325,6 +325,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -346,30 +347,35 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF158466"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFEA7500"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -559,19 +565,19 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.45"/>
@@ -579,6 +585,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,7 +1352,7 @@
         <v>0.725</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.697</v>

--- a/cells_initial_information/synaptic_location_seperate.xlsx
+++ b/cells_initial_information/synaptic_location_seperate.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1352,7 +1352,7 @@
         <v>0.725</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.2</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.697</v>
